--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_26_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_26_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_4</t>
+          <t>model_26_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9933105235517392</v>
+        <v>0.9534926688831634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7958917242003523</v>
+        <v>0.7783390093729272</v>
       </c>
       <c r="D2" t="n">
-        <v>0.990846514811519</v>
+        <v>0.9797940039306819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9789972660875047</v>
+        <v>0.9305861637834777</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9904897818600981</v>
+        <v>0.9641946058102712</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04473255981172703</v>
+        <v>0.3109947373248556</v>
       </c>
       <c r="H2" t="n">
-        <v>1.364872980104436</v>
+        <v>1.482248064978249</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1107496627516596</v>
+        <v>0.05217264941996826</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0326476473603259</v>
+        <v>0.08868914374997479</v>
       </c>
       <c r="K2" t="n">
-        <v>0.07169874662934586</v>
+        <v>0.07043097279738897</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3756917620825297</v>
+        <v>1.213149266567912</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2115007324141622</v>
+        <v>0.5576690213064157</v>
       </c>
       <c r="N2" t="n">
-        <v>1.002631925159971</v>
+        <v>1.018297966341051</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2205047564599059</v>
+        <v>0.581410146077448</v>
       </c>
       <c r="P2" t="n">
-        <v>176.2141072702027</v>
+        <v>172.3359585774622</v>
       </c>
       <c r="Q2" t="n">
-        <v>279.8185523839998</v>
+        <v>275.9404036912593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_5</t>
+          <t>model_26_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9932239404674136</v>
+        <v>0.9586374513254025</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7958464081741157</v>
+        <v>0.7779996623122083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9890152451039089</v>
+        <v>0.9618302384245255</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9742689498041162</v>
+        <v>0.8578257458307748</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9885328844675143</v>
+        <v>0.9287740213217337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04531154129529034</v>
+        <v>0.2765915534440579</v>
       </c>
       <c r="H3" t="n">
-        <v>1.365176008580542</v>
+        <v>1.484517280335825</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1329065241382245</v>
+        <v>0.0985557743498171</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03999756681706453</v>
+        <v>0.1816541708806827</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0864520454776445</v>
+        <v>0.140105005971291</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3989111940719925</v>
+        <v>1.525887019842234</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2128650776790085</v>
+        <v>0.5259197214823361</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002665990635772</v>
+        <v>1.016273789642465</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2219271847272608</v>
+        <v>0.5483092128297463</v>
       </c>
       <c r="P3" t="n">
-        <v>176.1883870084245</v>
+        <v>172.5704267945927</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.7928321222216</v>
+        <v>276.1748719083898</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_3</t>
+          <t>model_26_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9932322221547158</v>
+        <v>0.9617498545640805</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7957875188105608</v>
+        <v>0.776165501660377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9926109803576539</v>
+        <v>0.9436326758799062</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9837232192088673</v>
+        <v>0.7736333517290878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9923928706224397</v>
+        <v>0.8894871947154728</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04525616161416662</v>
+        <v>0.255778898655719</v>
       </c>
       <c r="H4" t="n">
-        <v>1.365569802025794</v>
+        <v>1.496782321060154</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08940107692368642</v>
+        <v>0.1455425721142697</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02530140131490588</v>
+        <v>0.2892256832784043</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05735111790232503</v>
+        <v>0.217384127696337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3495140061241042</v>
+        <v>1.781576956547209</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2127349562581726</v>
+        <v>0.5057458834787674</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002662732266997</v>
+        <v>1.015049237548558</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2217915237681515</v>
+        <v>0.5272765327767639</v>
       </c>
       <c r="P4" t="n">
-        <v>176.1908328996748</v>
+        <v>172.7268837696253</v>
       </c>
       <c r="Q4" t="n">
-        <v>279.7952780134718</v>
+        <v>276.3313288834224</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_6</t>
+          <t>model_26_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9930189297241963</v>
+        <v>0.9635577670000217</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7956934485483909</v>
+        <v>0.7735485481226183</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9871695698328704</v>
+        <v>0.927150772532763</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9696359962734149</v>
+        <v>0.6874164119531634</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9865742684911505</v>
+        <v>0.8506689067157835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04668244907917225</v>
+        <v>0.2436893798719084</v>
       </c>
       <c r="H5" t="n">
-        <v>1.366198850302078</v>
+        <v>1.51428190141711</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1552376810262951</v>
+        <v>0.1880994726577686</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04719924988067389</v>
+        <v>0.399383931003226</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1012183009480946</v>
+        <v>0.2937416109196777</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4195350856230496</v>
+        <v>1.985415946523337</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2160612160457592</v>
+        <v>0.4936490452456162</v>
       </c>
       <c r="N5" t="n">
-        <v>1.002746650600316</v>
+        <v>1.014337927737696</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2252593893212026</v>
+        <v>0.5146647070961202</v>
       </c>
       <c r="P5" t="n">
-        <v>176.1287740153243</v>
+        <v>172.8237217959921</v>
       </c>
       <c r="Q5" t="n">
-        <v>279.7332191291213</v>
+        <v>276.4281669097891</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_2</t>
+          <t>model_26_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9929296921504966</v>
+        <v>0.9645631942052403</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7954798022315541</v>
+        <v>0.7706460276863385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9942396531819844</v>
+        <v>0.9131238469008561</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9883080475964007</v>
+        <v>0.60545255550344</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9941724026755155</v>
+        <v>0.8148431185151481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04727918114540288</v>
+        <v>0.2369660835210454</v>
       </c>
       <c r="H6" t="n">
-        <v>1.367627504206516</v>
+        <v>1.53369106893939</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0696954716473073</v>
+        <v>0.2243175274828255</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01817452626009466</v>
+        <v>0.5041080702122549</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04393499895370098</v>
+        <v>0.3642126997403614</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3199516573206532</v>
+        <v>2.146379557568697</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2174377638438247</v>
+        <v>0.4867916222790254</v>
       </c>
       <c r="N6" t="n">
-        <v>1.002781760465378</v>
+        <v>1.013942349820889</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2266945396088785</v>
+        <v>0.5075153494370193</v>
       </c>
       <c r="P6" t="n">
-        <v>176.1033704505879</v>
+        <v>172.879676511188</v>
       </c>
       <c r="Q6" t="n">
-        <v>279.7078155643849</v>
+        <v>276.4841216249851</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_7</t>
+          <t>model_26_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9927315942833537</v>
+        <v>0.9650791880264381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7954653445434197</v>
+        <v>0.7677505840812721</v>
       </c>
       <c r="D7" t="n">
-        <v>0.985348031406183</v>
+        <v>0.9015731238111444</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9651657611519038</v>
+        <v>0.5308827969030351</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9846517518662188</v>
+        <v>0.7830438039311134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04860386249514491</v>
+        <v>0.2335156304627622</v>
       </c>
       <c r="H7" t="n">
-        <v>1.367724182833643</v>
+        <v>1.553052913658762</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1772768018956534</v>
+        <v>0.2541419332799607</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05414799571885318</v>
+        <v>0.5993848680437805</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1157123988072533</v>
+        <v>0.4267635167646364</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4378782029582085</v>
+        <v>2.273672041391498</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2204628369933239</v>
+        <v>0.4832345501542313</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002859700609828</v>
+        <v>1.013739335858451</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2298483963851166</v>
+        <v>0.5038068453877181</v>
       </c>
       <c r="P7" t="n">
-        <v>176.0481045520499</v>
+        <v>172.9090125284604</v>
       </c>
       <c r="Q7" t="n">
-        <v>279.6525496658469</v>
+        <v>276.5134576422575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_8</t>
+          <t>model_26_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.992389754481218</v>
+        <v>0.9652903048957431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7951870053263653</v>
+        <v>0.7650080416471796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9835785402947691</v>
+        <v>0.8921991246336759</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9609017066044944</v>
+        <v>0.4646494593358013</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98279224338282</v>
+        <v>0.7553807309724431</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05088974682605334</v>
+        <v>0.2321038909856162</v>
       </c>
       <c r="H8" t="n">
-        <v>1.369585438459719</v>
+        <v>1.571392307543784</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1986861929413463</v>
+        <v>0.2783459552480615</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06077624467772776</v>
+        <v>0.6840103305843857</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1297314702570379</v>
+        <v>0.4811781429162235</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4542149932625201</v>
+        <v>2.375143979819216</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2255875591118742</v>
+        <v>0.4817716170402904</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002994194958209</v>
+        <v>1.013656273483642</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2351912885338908</v>
+        <v>0.5022816321824278</v>
       </c>
       <c r="P8" t="n">
-        <v>175.9561876266381</v>
+        <v>172.921140403157</v>
       </c>
       <c r="Q8" t="n">
-        <v>279.5606327404351</v>
+        <v>276.5255855169541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_1</t>
+          <t>model_26_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9923273503383531</v>
+        <v>0.9653047099810954</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7948994180692089</v>
+        <v>0.7624768317241805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9956422609046341</v>
+        <v>0.8846193121556897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9925577657215782</v>
+        <v>0.406494964279973</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9957360052469932</v>
+        <v>0.7315190083066729</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0513070436167363</v>
+        <v>0.232007564113536</v>
       </c>
       <c r="H9" t="n">
-        <v>1.371508535772542</v>
+        <v>1.58831851995403</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05272506867426083</v>
+        <v>0.2979173190019902</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01156856251701091</v>
+        <v>0.7583135625167807</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0321467998869519</v>
+        <v>0.528115325930223</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2885030483628568</v>
+        <v>2.4569367072112</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2265105816882211</v>
+        <v>0.4816716351556691</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003018747407861</v>
+        <v>1.013650605909077</v>
       </c>
       <c r="O9" t="n">
-        <v>0.236153606092233</v>
+        <v>0.5021773938619872</v>
       </c>
       <c r="P9" t="n">
-        <v>175.9398544675201</v>
+        <v>172.9219706078193</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.5442995813171</v>
+        <v>276.5264157216164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_9</t>
+          <t>model_26_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9920147863396156</v>
+        <v>0.9651875253272365</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7948774759220222</v>
+        <v>0.7601694360087896</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9818805257943847</v>
+        <v>0.8784705805147769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9568721872394709</v>
+        <v>0.355641124718992</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9810143419124273</v>
+        <v>0.7109674715101706</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05339716051551847</v>
+        <v>0.232791178433476</v>
       </c>
       <c r="H10" t="n">
-        <v>1.371655263011814</v>
+        <v>1.603748085727429</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2192307756213578</v>
+        <v>0.3137935776718571</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06703992100715198</v>
+        <v>0.8232888431365322</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1431352960349968</v>
+        <v>0.5685412104041947</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4687821067123978</v>
+        <v>2.523680111084195</v>
       </c>
       <c r="M10" t="n">
-        <v>0.231078256258607</v>
+        <v>0.4824843815435645</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003141723407364</v>
+        <v>1.013696711346661</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2409157360254701</v>
+        <v>0.5030247405462324</v>
       </c>
       <c r="P10" t="n">
-        <v>175.8599954165929</v>
+        <v>172.9152269143396</v>
       </c>
       <c r="Q10" t="n">
-        <v>279.46444053039</v>
+        <v>276.5196720281367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_10</t>
+          <t>model_26_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9916228252921785</v>
+        <v>0.9649803676673587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7945512734502203</v>
+        <v>0.7580770596362871</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9802667702518084</v>
+        <v>0.8734490057377815</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9530917715648985</v>
+        <v>0.3111640128745192</v>
       </c>
       <c r="F11" t="n">
-        <v>0.979329702004086</v>
+        <v>0.6932267572236428</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0560182058445454</v>
+        <v>0.2341764426589522</v>
       </c>
       <c r="H11" t="n">
-        <v>1.373836580442778</v>
+        <v>1.61773981616486</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2387558940242195</v>
+        <v>0.3267594745015686</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07291637872609009</v>
+        <v>0.8801166627898598</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1558360110105094</v>
+        <v>0.6034380686457144</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4817891790746354</v>
+        <v>2.578816104318258</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2366816550655023</v>
+        <v>0.4839178056849656</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003295937589963</v>
+        <v>1.013778215999728</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2467576831202094</v>
+        <v>0.5045191885209298</v>
       </c>
       <c r="P11" t="n">
-        <v>175.7641570734302</v>
+        <v>172.903360838608</v>
       </c>
       <c r="Q11" t="n">
-        <v>279.3686021872272</v>
+        <v>276.5078059524051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_11</t>
+          <t>model_26_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9912259917115083</v>
+        <v>0.9647115182581479</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7942191244725927</v>
+        <v>0.7561825440624962</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9787451600540203</v>
+        <v>0.8693110292323118</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9495661925097909</v>
+        <v>0.2721781855634313</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9777452471867015</v>
+        <v>0.6778493864867104</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05867183382573722</v>
+        <v>0.2359742398962822</v>
       </c>
       <c r="H12" t="n">
-        <v>1.376057662185579</v>
+        <v>1.630408450530243</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2571661293361845</v>
+        <v>0.3374438870287864</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07839670629733203</v>
+        <v>0.9299283405628535</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1677814178167583</v>
+        <v>0.6336861137958198</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4933992095950091</v>
+        <v>2.626324776867543</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2422226946958877</v>
+        <v>0.4857717981689367</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003452068834817</v>
+        <v>1.013883992816466</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2525346162791937</v>
+        <v>0.5064521093032371</v>
       </c>
       <c r="P12" t="n">
-        <v>175.6715909998311</v>
+        <v>172.888065265792</v>
       </c>
       <c r="Q12" t="n">
-        <v>279.2760361136282</v>
+        <v>276.4925103795891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_26_9_0</t>
+          <t>model_26_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9913295301347651</v>
+        <v>0.9644013097363855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7939578314446101</v>
+        <v>0.7544667021156559</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9967034959416594</v>
+        <v>0.8658687507321672</v>
       </c>
       <c r="E13" t="n">
-        <v>0.996200495149659</v>
+        <v>0.2378912010548861</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9969631069111171</v>
+        <v>0.6644546728467284</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05797947191266876</v>
+        <v>0.2380486057096868</v>
       </c>
       <c r="H13" t="n">
-        <v>1.377804929866842</v>
+        <v>1.641882293529489</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03988499519069933</v>
+        <v>0.3463319808786435</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005906130840613077</v>
+        <v>0.9737363688116611</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02289552404761876</v>
+        <v>0.6600341748451524</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2527613576809504</v>
+        <v>2.668473438988644</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2407892686825324</v>
+        <v>0.4879022501584582</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003411332405994</v>
+        <v>1.01400604207093</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2510401663528489</v>
+        <v>0.5086732590445961</v>
       </c>
       <c r="P13" t="n">
-        <v>175.6953325272496</v>
+        <v>172.8705608009819</v>
       </c>
       <c r="Q13" t="n">
-        <v>279.2997776410467</v>
+        <v>276.4750059147789</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9908331348594638</v>
+        <v>0.9640650560473973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7938890294997472</v>
+        <v>0.7529112658118424</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9773194715545448</v>
+        <v>0.8629776993085284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9462942118349982</v>
+        <v>0.2076349733879438</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9762639523876214</v>
+        <v>0.6527308208386675</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0612988694042982</v>
+        <v>0.2402971356762561</v>
       </c>
       <c r="H14" t="n">
-        <v>1.378265008788944</v>
+        <v>1.652283503255215</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2744157907771119</v>
+        <v>0.3537967854773952</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08348282849863642</v>
+        <v>1.012394352164074</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1789490880973172</v>
+        <v>0.6830955688207345</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5037883044574538</v>
+        <v>2.704591396448173</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2475860848357561</v>
+        <v>0.4902011175795666</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003606635465129</v>
+        <v>1.014138338604303</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2581263370410644</v>
+        <v>0.5110699940111327</v>
       </c>
       <c r="P14" t="n">
-        <v>175.5839877597187</v>
+        <v>172.8517581121866</v>
       </c>
       <c r="Q14" t="n">
-        <v>279.1884328735158</v>
+        <v>276.4562032259836</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9904506703524214</v>
+        <v>0.9637143978449999</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7935667789471267</v>
+        <v>0.7514995805405608</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9759908189557706</v>
+        <v>0.8605280061011321</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9432697156243911</v>
+        <v>0.1808403856676409</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9748859463943372</v>
+        <v>0.642420815604592</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06385641132397794</v>
+        <v>0.2426419886903205</v>
       </c>
       <c r="H15" t="n">
-        <v>1.380419899718145</v>
+        <v>1.661723449164489</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2904913974120072</v>
+        <v>0.3601219863958509</v>
       </c>
       <c r="J15" t="n">
-        <v>0.08818424909168589</v>
+        <v>1.046629443776567</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1893380509068725</v>
+        <v>0.7033758565990049</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5130781873545799</v>
+        <v>2.735783736867611</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2526982614185898</v>
+        <v>0.4925870366649132</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003757113303965</v>
+        <v>1.014276302487213</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2634561495646938</v>
+        <v>0.5135574866114759</v>
       </c>
       <c r="P15" t="n">
-        <v>175.5022365785323</v>
+        <v>172.8323364391646</v>
       </c>
       <c r="Q15" t="n">
-        <v>279.1066816923293</v>
+        <v>276.4367815529617</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9900831236168857</v>
+        <v>0.9633583259504146</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7932563228208669</v>
+        <v>0.7502171041173608</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9747582627887073</v>
+        <v>0.8584345249932455</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9404843236637109</v>
+        <v>0.1570379099298215</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9736098126612659</v>
+        <v>0.6333164998920511</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06631419803690228</v>
+        <v>0.2450230430889725</v>
       </c>
       <c r="H16" t="n">
-        <v>1.382495921263963</v>
+        <v>1.670299374911688</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3054043160450675</v>
+        <v>0.3655274341418764</v>
       </c>
       <c r="J16" t="n">
-        <v>0.09251399467963863</v>
+        <v>1.077041553341177</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1989589857631142</v>
+        <v>0.7212844937415266</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5213945169518051</v>
+        <v>2.762902489294381</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2575154326189059</v>
+        <v>0.4949980233182477</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003901721855652</v>
+        <v>1.014416396347378</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2684783977159265</v>
+        <v>0.5160711139580733</v>
       </c>
       <c r="P16" t="n">
-        <v>175.4267025126945</v>
+        <v>172.8128060388716</v>
       </c>
       <c r="Q16" t="n">
-        <v>279.0311476264915</v>
+        <v>276.4172511526686</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9897334079790845</v>
+        <v>0.9630039876551838</v>
       </c>
       <c r="C17" t="n">
-        <v>0.792960471919655</v>
+        <v>0.7490510509373108</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9736190748649252</v>
+        <v>0.8566328051860976</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9379260292798205</v>
+        <v>0.1358394963633006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9724319176196783</v>
+        <v>0.6252493294649049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06865274811717159</v>
+        <v>0.2473925049007593</v>
       </c>
       <c r="H17" t="n">
-        <v>1.384474277602635</v>
+        <v>1.678096777895863</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3191875555185301</v>
+        <v>0.3701795431262027</v>
       </c>
       <c r="J17" t="n">
-        <v>0.09649072900561449</v>
+        <v>1.104126486987663</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2078392866037866</v>
+        <v>0.7371530150569329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5288431809707113</v>
+        <v>2.7866081301268</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2620166943482258</v>
+        <v>0.4973856701803533</v>
       </c>
       <c r="N17" t="n">
-        <v>1.004039314893475</v>
+        <v>1.014555808135665</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2731712874759598</v>
+        <v>0.5185604078902091</v>
       </c>
       <c r="P17" t="n">
-        <v>175.3573882334586</v>
+        <v>172.793558229905</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.9618333472556</v>
+        <v>276.3980033437021</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9894033261454236</v>
+        <v>0.9626565736436253</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7926808222206397</v>
+        <v>0.7479903545344422</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9725694904412104</v>
+        <v>0.8550719863980972</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9355825739416</v>
+        <v>0.1169127998002424</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9713481317073218</v>
+        <v>0.6180781260892187</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07086000685874874</v>
+        <v>0.2497156639957451</v>
       </c>
       <c r="H18" t="n">
-        <v>1.386344296427619</v>
+        <v>1.685189659625904</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3318866661373009</v>
+        <v>0.374209636527938</v>
       </c>
       <c r="J18" t="n">
-        <v>0.100133507312746</v>
+        <v>1.128308877757094</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2160100867250234</v>
+        <v>0.7512591250804997</v>
       </c>
       <c r="L18" t="n">
-        <v>0.5355954171737138</v>
+        <v>2.807437852549117</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2661954298231822</v>
+        <v>0.4997155831027737</v>
       </c>
       <c r="N18" t="n">
-        <v>1.004169183155899</v>
+        <v>1.014692495615623</v>
       </c>
       <c r="O18" t="n">
-        <v>0.27752792037126</v>
+        <v>0.5209895100293215</v>
       </c>
       <c r="P18" t="n">
-        <v>175.2940981655037</v>
+        <v>172.7748647048069</v>
       </c>
       <c r="Q18" t="n">
-        <v>278.8985432793008</v>
+        <v>276.3793098186039</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9890938483549161</v>
+        <v>0.9623199583526743</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7924183309491821</v>
+        <v>0.7470252235770953</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9716053400078585</v>
+        <v>0.8537118846692932</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9334394319203074</v>
+        <v>0.09997963158906042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9703535516073336</v>
+        <v>0.6116859666977136</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0729294862688868</v>
+        <v>0.251966611996306</v>
       </c>
       <c r="H19" t="n">
-        <v>1.388099576768516</v>
+        <v>1.691643494781701</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3435520955488192</v>
+        <v>0.3777214708581514</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1034649090838569</v>
+        <v>1.149944163623438</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2235083528575792</v>
+        <v>0.7638328172407949</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5417198194626077</v>
+        <v>2.82581664338913</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2700545986812423</v>
+        <v>0.5019627595711719</v>
       </c>
       <c r="N19" t="n">
-        <v>1.004290944909541</v>
+        <v>1.01482493441862</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2815513820371885</v>
+        <v>0.5233323534522759</v>
       </c>
       <c r="P19" t="n">
-        <v>175.236524492356</v>
+        <v>172.7569173846534</v>
       </c>
       <c r="Q19" t="n">
-        <v>278.8409696061531</v>
+        <v>276.3613624984505</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.988805260515167</v>
+        <v>0.9619972274386805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7921733020649675</v>
+        <v>0.7461470927709701</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9707215958905858</v>
+        <v>0.8525214726680987</v>
       </c>
       <c r="E20" t="n">
-        <v>0.931484243113667</v>
+        <v>0.08481048949810643</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9694428485415368</v>
+        <v>0.6059780847819838</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07485927448211355</v>
+        <v>0.2541247151042212</v>
       </c>
       <c r="H20" t="n">
-        <v>1.389738086045514</v>
+        <v>1.697515559525682</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3542446744880278</v>
+        <v>0.3807951598656407</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1065041474491098</v>
+        <v>1.169325576563531</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2303742593392795</v>
+        <v>0.7750605019244843</v>
       </c>
       <c r="L20" t="n">
-        <v>0.547212783109426</v>
+        <v>2.84207569428256</v>
       </c>
       <c r="M20" t="n">
-        <v>0.2736042296495315</v>
+        <v>0.5041078407486053</v>
       </c>
       <c r="N20" t="n">
-        <v>1.004404487666164</v>
+        <v>1.014951910515929</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2852521281445469</v>
+        <v>0.5255687551763629</v>
       </c>
       <c r="P20" t="n">
-        <v>175.1842905364315</v>
+        <v>172.7398602562389</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.7887356502285</v>
+        <v>276.344305370036</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9885374503319725</v>
+        <v>0.9616900668627095</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7919457482590206</v>
+        <v>0.7453481961439269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9699134453560591</v>
+        <v>0.8514745816079976</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9297035191847131</v>
+        <v>0.07119837826733133</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9686107692454635</v>
+        <v>0.6008702156023429</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07665012241028799</v>
+        <v>0.2561786992900836</v>
       </c>
       <c r="H21" t="n">
-        <v>1.39125973939367</v>
+        <v>1.7028577849493</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3640226330806781</v>
+        <v>0.3834982723512704</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1092721893202681</v>
+        <v>1.186717591693211</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2366474112004731</v>
+        <v>0.7851079320222405</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5521413304398259</v>
+        <v>2.856518736754448</v>
       </c>
       <c r="M21" t="n">
-        <v>0.2768575850690893</v>
+        <v>0.5061409875618489</v>
       </c>
       <c r="N21" t="n">
-        <v>1.004509855607093</v>
+        <v>1.015072760578606</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2886439856396893</v>
+        <v>0.5276884572586403</v>
       </c>
       <c r="P21" t="n">
-        <v>175.137008153325</v>
+        <v>172.7237600678403</v>
       </c>
       <c r="Q21" t="n">
-        <v>278.741453267122</v>
+        <v>276.3282051816374</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9882898382480846</v>
+        <v>0.96140000413253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7917352131839035</v>
+        <v>0.7446216198266966</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9691757341128187</v>
+        <v>0.8505512920743893</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9280830076662123</v>
+        <v>0.05897736921198238</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9678517489801293</v>
+        <v>0.5962952612381142</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07830590555539552</v>
+        <v>0.25811835010241</v>
       </c>
       <c r="H22" t="n">
-        <v>1.392667588410403</v>
+        <v>1.707716404128196</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3729483340256912</v>
+        <v>0.3858822410002209</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1117911894094842</v>
+        <v>1.202332213906262</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2423697617175877</v>
+        <v>0.7941070924467534</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5565659299253569</v>
+        <v>2.869357600035436</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2798319237603092</v>
+        <v>0.5080534913790181</v>
       </c>
       <c r="N22" t="n">
-        <v>1.004607276754852</v>
+        <v>1.015186883619988</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2917449480867245</v>
+        <v>0.5296823803227353</v>
       </c>
       <c r="P22" t="n">
-        <v>175.0942645133321</v>
+        <v>172.7086741558276</v>
       </c>
       <c r="Q22" t="n">
-        <v>278.6987096271292</v>
+        <v>276.3131192696247</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9880616149128332</v>
+        <v>0.9611274842391444</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7915410637740189</v>
+        <v>0.7439610691573821</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9685031889018382</v>
+        <v>0.8497346712787922</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9266105771764939</v>
+        <v>0.04798952514204302</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9671603063966873</v>
+        <v>0.592190676739812</v>
       </c>
       <c r="G23" t="n">
-        <v>0.07983203604909296</v>
+        <v>0.2599406918843186</v>
       </c>
       <c r="H23" t="n">
-        <v>1.393965866408277</v>
+        <v>1.712133509495458</v>
       </c>
       <c r="I23" t="n">
-        <v>0.381085579431961</v>
+        <v>0.3879907869155809</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1140800053127471</v>
+        <v>1.216371237468962</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2475826354781741</v>
+        <v>0.8021810121922712</v>
       </c>
       <c r="L23" t="n">
-        <v>0.5605408642897998</v>
+        <v>2.880811217237439</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2825456353389536</v>
+        <v>0.5098437916502647</v>
       </c>
       <c r="N23" t="n">
-        <v>1.004697069542492</v>
+        <v>1.015294104561648</v>
       </c>
       <c r="O23" t="n">
-        <v>0.2945741879854292</v>
+        <v>0.5315488973829613</v>
       </c>
       <c r="P23" t="n">
-        <v>175.0556608016766</v>
+        <v>172.6946035642489</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.6601059154737</v>
+        <v>276.299048678046</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.987851945205965</v>
+        <v>0.9608728186620639</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7913625796663819</v>
+        <v>0.7433609183640513</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9678911614492181</v>
+        <v>0.8490100325307559</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9252743799229193</v>
+        <v>0.03810867104064608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9665314277558945</v>
+        <v>0.5885061889451942</v>
       </c>
       <c r="G24" t="n">
-        <v>0.08123409834436147</v>
+        <v>0.2616436417708826</v>
       </c>
       <c r="H24" t="n">
-        <v>1.39515939045789</v>
+        <v>1.716146720613901</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3884906096009871</v>
+        <v>0.3898618316899996</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1161570538017815</v>
+        <v>1.22899587453754</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2523238317013843</v>
+        <v>0.8094285810434886</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5641085684692186</v>
+        <v>2.891035439006476</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2850159615606843</v>
+        <v>0.5115111355296994</v>
       </c>
       <c r="N24" t="n">
-        <v>1.004779562541915</v>
+        <v>1.01539430085427</v>
       </c>
       <c r="O24" t="n">
-        <v>0.2971496811086992</v>
+        <v>0.5332872235432212</v>
       </c>
       <c r="P24" t="n">
-        <v>175.0208403792226</v>
+        <v>172.6815436939435</v>
       </c>
       <c r="Q24" t="n">
-        <v>278.6252854930196</v>
+        <v>276.2859888077406</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9876596925469888</v>
+        <v>0.9606358946976234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7911989442285603</v>
+        <v>0.7428158460708465</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9673346666849754</v>
+        <v>0.8483658730252863</v>
       </c>
       <c r="E25" t="n">
-        <v>0.924062263290182</v>
+        <v>0.02921870118791614</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9659599436693239</v>
+        <v>0.58519605678682</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08251969276017673</v>
+        <v>0.2632279534120309</v>
       </c>
       <c r="H25" t="n">
-        <v>1.396253621384075</v>
+        <v>1.719791621548389</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3952237397906222</v>
+        <v>0.3915250760029311</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1180412254791481</v>
+        <v>1.240354471860159</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2566323230654052</v>
+        <v>0.8159397739315449</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5673118562236572</v>
+        <v>2.900176818638633</v>
       </c>
       <c r="M25" t="n">
-        <v>0.2872624109767526</v>
+        <v>0.5130574562483532</v>
       </c>
       <c r="N25" t="n">
-        <v>1.004855202932332</v>
+        <v>1.015487516840279</v>
       </c>
       <c r="O25" t="n">
-        <v>0.2994917665272009</v>
+        <v>0.5348993743361932</v>
       </c>
       <c r="P25" t="n">
-        <v>174.989436628005</v>
+        <v>172.6694697583953</v>
       </c>
       <c r="Q25" t="n">
-        <v>278.593881741802</v>
+        <v>276.2739148721924</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9874838823791913</v>
+        <v>0.9604162877182759</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7910491586148611</v>
+        <v>0.7423211019813166</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9668293461607071</v>
+        <v>0.8477931398767961</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9229649711118173</v>
+        <v>0.0212151611431185</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9654413090633278</v>
+        <v>0.5822208992413486</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0836953361617707</v>
+        <v>0.2646964662941249</v>
       </c>
       <c r="H26" t="n">
-        <v>1.39725523847258</v>
+        <v>1.723099977553162</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4013377036515816</v>
+        <v>0.3930038947488551</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1197469085697281</v>
+        <v>1.250580489499172</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2605423754597359</v>
+        <v>0.8217920552677788</v>
       </c>
       <c r="L26" t="n">
-        <v>0.5701936673620243</v>
+        <v>2.90835549835922</v>
       </c>
       <c r="M26" t="n">
-        <v>0.2893014624259108</v>
+        <v>0.5144866045818151</v>
       </c>
       <c r="N26" t="n">
-        <v>1.004924374145892</v>
+        <v>1.015573919586252</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3016176246179681</v>
+        <v>0.5363893644729554</v>
       </c>
       <c r="P26" t="n">
-        <v>174.9611440478521</v>
+        <v>172.6583430393808</v>
       </c>
       <c r="Q26" t="n">
-        <v>278.5655891616491</v>
+        <v>276.2627881531778</v>
       </c>
     </row>
   </sheetData>
